--- a/JSanswers.xlsx
+++ b/JSanswers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITIintake-43\AdvDB(SQL)\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITIintake-43\AdvDB(SQL)\project-\ITI-AdvDB-project-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5E8323-96BB-4F61-B40A-539C4B77652C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ED5A01-68F4-4FA9-BB44-27858425AEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
   <si>
     <t>questionID</t>
   </si>
@@ -118,13 +118,88 @@
   </si>
   <si>
     <t>No such operator exists</t>
+  </si>
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>Segmental</t>
+  </si>
+  <si>
+    <t>Lexical</t>
+  </si>
+  <si>
+    <t>Literal</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 6, 7, 8</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Value not found Error</t>
+  </si>
+  <si>
+    <t>Reference Error</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>JavaScript .NET</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Cocoa JS</t>
+  </si>
+  <si>
+    <t>jQuery</t>
+  </si>
+  <si>
+    <t>runtime error</t>
+  </si>
+  <si>
+    <t>logical error</t>
+  </si>
+  <si>
+    <t>Returns the value in scope</t>
+  </si>
+  <si>
+    <t>Returns value null</t>
+  </si>
+  <si>
+    <t>Shows an error message</t>
+  </si>
+  <si>
+    <t>Returns exception</t>
+  </si>
+  <si>
+    <t>Missing of Bracket</t>
+  </si>
+  <si>
+    <t>Division by zero</t>
+  </si>
+  <si>
+    <t>Syntax error</t>
+  </si>
+  <si>
+    <t>Missing of semicolons</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +212,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,10 +247,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,13 +546,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -790,7 +871,7 @@
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -801,7 +882,7 @@
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -812,7 +893,7 @@
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -825,6 +906,424 @@
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>11</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>11</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>13</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>13</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>13</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>14</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>14</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>14</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>14</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>15</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>15</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>15</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>15</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>16</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>16</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>17</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>17</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>18</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>18</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>19</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>19</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>20</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>20</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/JSanswers.xlsx
+++ b/JSanswers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITIintake-43\AdvDB(SQL)\project-\ITI-AdvDB-project-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ED5A01-68F4-4FA9-BB44-27858425AEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77EA280-86F0-43D9-8543-F2BA3555CF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
